--- a/data/memberActivity.xlsx
+++ b/data/memberActivity.xlsx
@@ -145,13 +145,13 @@
     <t>Total Contribution in Million</t>
   </si>
   <si>
-    <t>£46.74M</t>
+    <t>£35.96M</t>
   </si>
   <si>
     <t>Total payments out in Million</t>
   </si>
   <si>
-    <t>£13.87M</t>
+    <t>£14.10M</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -241,10 +241,10 @@
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
-    <t>£11.52M</t>
+    <t>£11.56M</t>
   </si>
   <si>
-    <t>£0.53M</t>
+    <t>£0.60M</t>
   </si>
 </sst>
 </file>
@@ -5209,7 +5209,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3">
-        <v>-9</v>
+        <v>-214</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
@@ -5263,7 +5263,7 @@
         <v>24372</v>
       </c>
       <c r="C6" s="3">
-        <v>24432</v>
+        <v>24600</v>
       </c>
       <c r="D6" s="10">
         <v>0.05</v>
@@ -5281,7 +5281,7 @@
         <v>24406</v>
       </c>
       <c r="C7" s="3">
-        <v>24423</v>
+        <v>24386</v>
       </c>
       <c r="D7" s="10">
         <v>0.02</v>
@@ -6032,7 +6032,7 @@
         <v>1262</v>
       </c>
       <c r="C3" s="3">
-        <v>3888</v>
+        <v>3880</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
@@ -6086,7 +6086,7 @@
         <v>226010</v>
       </c>
       <c r="C6" s="3">
-        <v>225900</v>
+        <v>225735</v>
       </c>
       <c r="D6" s="10">
         <v>0.02</v>
@@ -6104,7 +6104,7 @@
         <v>227272</v>
       </c>
       <c r="C7" s="3">
-        <v>229788</v>
+        <v>229615</v>
       </c>
       <c r="D7" s="10">
         <v>0.02</v>

--- a/data/memberActivity.xlsx
+++ b/data/memberActivity.xlsx
@@ -3,47 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C812E2-B19D-419C-B3D3-652F2F329304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC651FBF-FC56-420F-AD75-CF1FE5838F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet28" sheetId="28" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId13"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId14"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId15"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId17"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId20"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId21"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId23"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId24"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId25"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId26"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId27"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId28"/>
-    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
-    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet51" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet50" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId15"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId16"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId18"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId19"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId20"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId21"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId22"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId23"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId24"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId25"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId26"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId27"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId28"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId29"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId30"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId31"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId32"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId33"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId34"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId35"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId36"/>
     <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
     <sheet name="Sheet38" sheetId="38" r:id="rId38"/>
     <sheet name="Sheet39" sheetId="39" r:id="rId39"/>
@@ -65,9 +65,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="63">
   <si>
-    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
     <t>Master Data</t>
@@ -85,6 +85,34 @@
     <t>Member Net Movement</t>
   </si>
   <si>
+    <t>Total Contribution in Million</t>
+  </si>
+  <si>
+    <t>Total payments out in Million</t>
+  </si>
+  <si>
+    <t>Members at start date</t>
+  </si>
+  <si>
+    <t>Members at end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0% - +2%
+Must never be &lt; start date but can be &gt;</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>£36.68M</t>
+  </si>
+  <si>
+    <t>£15.48M</t>
+  </si>
+  <si>
+    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+  </si>
+  <si>
     <t>-8</t>
   </si>
   <si>
@@ -98,12 +126,6 @@
   </si>
   <si>
     <t>£0.44M</t>
-  </si>
-  <si>
-    <t>Members at start date</t>
-  </si>
-  <si>
-    <t>Members at end date</t>
   </si>
   <si>
     <t>YOUR M &amp; S PENSION SAVING PLAN</t>
@@ -149,21 +171,6 @@
   </si>
   <si>
     <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>Total Contribution in Million</t>
-  </si>
-  <si>
-    <t>£40.79M</t>
-  </si>
-  <si>
-    <t>Total payments out in Million</t>
-  </si>
-  <si>
-    <t>£14.76M</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -249,15 +256,6 @@
   <si>
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
-  <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>£11.63M</t>
-  </si>
-  <si>
-    <t>£1.00M</t>
-  </si>
 </sst>
 </file>
 
@@ -275,6 +273,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,14 +292,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC586C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -343,14 +347,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -364,6 +370,19 @@
       </top>
       <bottom style="thin">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,50 +449,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,6 +1932,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11.36</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25082</v>
+      </c>
+      <c r="C6" s="16">
+        <v>24997</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
+        <v>24256</v>
+      </c>
+      <c r="C7" s="11">
+        <v>24922</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="163" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="161" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1913,20 +2098,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1944,68 +2127,62 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -2015,41 +2192,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="163" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2058,8 +2235,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2074,14 +2251,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2099,8 +2276,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>-30</v>
       </c>
       <c r="D3" s="5">
@@ -2113,11 +2290,11 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -2129,11 +2306,11 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="5">
         <v>0.05</v>
@@ -2144,25 +2321,25 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>1433</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>1403</v>
       </c>
       <c r="D7" s="9">
@@ -2174,189 +2351,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="115" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="42.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2376,18 +2405,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2405,8 +2434,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -2417,10 +2446,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -2431,10 +2460,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -2444,23 +2473,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -2470,41 +2499,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="101" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2524,18 +2553,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2553,8 +2582,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -2565,10 +2594,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -2579,10 +2608,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -2592,23 +2621,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -2618,41 +2647,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,18 +2701,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="56.42578125" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2701,8 +2730,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -2713,10 +2742,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -2727,10 +2756,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -2740,23 +2769,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -2765,42 +2794,42 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2820,18 +2849,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="28.5703125" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2849,8 +2878,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -2861,10 +2890,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -2875,10 +2904,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -2888,23 +2917,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -2913,42 +2942,42 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2968,18 +2997,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="41.5703125" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2997,8 +3026,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -3009,10 +3038,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -3023,10 +3052,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -3036,23 +3065,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -3062,41 +3091,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3107,6 +3136,154 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3121,14 +3298,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3146,10 +3323,10 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>398</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>416</v>
       </c>
       <c r="D3" s="5">
@@ -3162,12 +3339,12 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
         <v>11.16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>11.16</v>
       </c>
       <c r="D4" s="5">
@@ -3180,12 +3357,12 @@
     </row>
     <row r="5" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>6.12</v>
       </c>
       <c r="D5" s="5">
@@ -3197,13 +3374,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16">
         <v>63125</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>63125</v>
       </c>
       <c r="D6" s="9">
@@ -3215,13 +3392,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
         <v>63541</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>63541</v>
       </c>
       <c r="D7" s="9">
@@ -3233,41 +3410,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3276,8 +3453,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3291,14 +3468,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3316,8 +3493,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>-19</v>
       </c>
       <c r="D3" s="5">
@@ -3330,11 +3507,11 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -3346,11 +3523,11 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="5">
         <v>0.05</v>
@@ -3361,25 +3538,25 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>1021</v>
       </c>
       <c r="D7" s="9">
@@ -3391,41 +3568,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3434,8 +3611,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1262</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-408</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35.6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14.13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>226010</v>
+      </c>
+      <c r="C6" s="1">
+        <v>232039</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
+        <v>229257</v>
+      </c>
+      <c r="C7">
+        <v>231631</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="158" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3449,14 +3800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3474,8 +3825,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -3486,10 +3837,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -3500,10 +3851,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -3513,23 +3864,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -3539,352 +3890,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="157" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="155" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="153" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="3" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,19 +3943,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3933,62 +3973,68 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -3998,41 +4044,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4043,6 +4089,154 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4054,14 +4248,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4079,8 +4273,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4091,10 +4285,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4105,10 +4299,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -4118,23 +4312,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -4144,193 +4338,45 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="29.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,22 +4396,22 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4379,8 +4425,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4391,10 +4437,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4405,10 +4451,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -4417,24 +4463,24 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -4444,41 +4490,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4498,22 +4544,22 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4527,8 +4573,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4539,10 +4585,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4553,10 +4599,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -4566,23 +4612,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -4592,41 +4638,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,19 +4692,18 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4676,8 +4721,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4688,10 +4733,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4702,10 +4747,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -4715,23 +4760,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -4741,20 +4786,30 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -4784,20 +4839,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4815,8 +4870,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4827,10 +4882,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4841,10 +4896,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -4854,23 +4909,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -4880,41 +4935,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4934,22 +4979,23 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="3" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4963,8 +5009,8 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
@@ -4975,10 +5021,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
@@ -4989,10 +5035,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
@@ -5002,23 +5048,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -5028,41 +5074,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5073,12 +5119,147 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5095,19 +5276,20 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5125,9 +5307,9 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>0.05</v>
@@ -5139,11 +5321,11 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>0.05</v>
@@ -5155,11 +5337,11 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="5">
         <v>0.05</v>
@@ -5170,25 +5352,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -5198,41 +5378,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="150" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="149" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5321,155 +5501,12 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-1413</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11">
-        <v>11.36</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>24372</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24954</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>23541</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5524,19 +5561,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5554,62 +5593,68 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -5619,46 +5664,47 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="145" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="144" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="142" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="140" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -5686,19 +5732,19 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5716,62 +5762,70 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="5">
         <v>0.05</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="5">
         <v>0.05</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="6" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="9">
         <v>0.02</v>
       </c>
@@ -5781,41 +5835,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="139" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="137" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="135" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5826,6 +5880,303 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="133" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="127" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5840,14 +6191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5865,10 +6216,10 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>624</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>624</v>
       </c>
       <c r="D3" s="5">
@@ -5881,12 +6232,12 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>11.73</v>
       </c>
       <c r="D4" s="5">
@@ -5899,12 +6250,12 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
         <v>14.29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>15.29</v>
       </c>
       <c r="D5" s="5">
@@ -5916,13 +6267,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>66247</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>66247</v>
       </c>
       <c r="D6" s="9">
@@ -5934,13 +6285,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>66800</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>66871</v>
       </c>
       <c r="D7" s="9">
@@ -5952,41 +6303,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5995,8 +6346,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -6006,319 +6357,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="123" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1262</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11">
-        <v>35.6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11">
-        <v>14.13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>226010</v>
-      </c>
-      <c r="C6" s="2">
-        <v>230093</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>231201</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="120" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="116" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
 </file>
--- a/data/memberActivity.xlsx
+++ b/data/memberActivity.xlsx
@@ -3,47 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C812E2-B19D-419C-B3D3-652F2F329304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FAC1F5-C326-4CCD-B396-F0BC4B59D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet28" sheetId="28" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId13"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId14"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId15"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId17"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId20"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId21"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId22"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId23"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId24"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId25"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId26"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId27"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId28"/>
-    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
-    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet51" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet50" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId15"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId16"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId18"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId19"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId20"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId21"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId22"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId23"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId24"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId25"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId26"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId27"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId28"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId29"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId30"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId31"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId32"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId33"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId34"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId35"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId36"/>
     <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
     <sheet name="Sheet38" sheetId="38" r:id="rId38"/>
     <sheet name="Sheet39" sheetId="39" r:id="rId39"/>
@@ -65,47 +65,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="108">
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>MySI
+Dashboard Menu Title</t>
+  </si>
+  <si>
+    <t>MySI 
+Data Object</t>
+  </si>
+  <si>
+    <t>MySI
+Name / Title</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>TOLERANCE</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>End date &gt; Start date</t>
+  </si>
+  <si>
+    <t>Member Activity Overview</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Scheme Category Description Filter</t>
+  </si>
+  <si>
+    <t>Age Band Filter</t>
+  </si>
+  <si>
+    <t>Filter is displayed</t>
+  </si>
+  <si>
+    <t>Active Only Filter</t>
+  </si>
+  <si>
+    <t>Deferred Only Filter</t>
+  </si>
+  <si>
+    <t>Company Name Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0% - +2%
+Must never be &lt; start date but can be &gt;</t>
+  </si>
+  <si>
+    <t>Gender Filter</t>
+  </si>
+  <si>
+    <t>Group Scheme Type Filter</t>
+  </si>
+  <si>
+    <t>Member Status Filter</t>
+  </si>
+  <si>
+    <t>Show or Hide Security Filter</t>
+  </si>
+  <si>
+    <t>Scheme ID Filter</t>
+  </si>
+  <si>
+    <t>Membership Date Filter</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>Member Net Movement</t>
+  </si>
+  <si>
+    <t>Total Contribution</t>
+  </si>
+  <si>
+    <t>£10.96M</t>
+  </si>
+  <si>
+    <t>Total payments out</t>
+  </si>
+  <si>
+    <t>£1.18M</t>
+  </si>
+  <si>
+    <t>Member Movement Status - Trust</t>
+  </si>
+  <si>
+    <t>Member Movement Status - Contract</t>
+  </si>
+  <si>
+    <t>["Members at 24/04/2022","24,304","Add new members","1,131","Less leavers","-3,078","Less deceased","-1","Less retired","-124","Less surrendered","-2","Less transferred","-38","Members at 24/07/2022","22,192"]</t>
+  </si>
+  <si>
+    <t>Member Activity Analysis</t>
+  </si>
+  <si>
+    <t>Members at start date</t>
+  </si>
+  <si>
+    <t>Members at end date</t>
+  </si>
+  <si>
+    <t>Member net movement</t>
+  </si>
+  <si>
+    <t>Members today</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Map - Member Activity by Postcode</t>
+  </si>
+  <si>
+    <t>Map is displayed</t>
+  </si>
+  <si>
+    <t>Bar Chart - Member Net Movement over Time</t>
+  </si>
+  <si>
+    <t>Graph is displayed</t>
+  </si>
+  <si>
+    <t>Member Activity Detail Report</t>
+  </si>
+  <si>
+    <t>Date Filter</t>
+  </si>
+  <si>
+    <t>Gone Away Indicator Filter</t>
+  </si>
+  <si>
+    <t>Year/Month Filter</t>
+  </si>
+  <si>
+    <t>Detail Table - Member Activity Information</t>
+  </si>
+  <si>
+    <t>Detail Table - Member Activity Information (contract based scheme)</t>
+  </si>
+  <si>
+    <t>["2135452601","16/11/1953","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2729422601","12/07/1956","Male","03/06/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2781802601","20/08/1956","Male","01/05/2022","£0.00","Sodexo Ltd - Monthly Paid","2025452601","05/09/1956","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2160751601","17/09/1956","Male","02/05/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2247872601","21/10/1956","Male","11/07/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2345452601","04/11/1956","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2214452601","17/12/1956","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2672102601","05/04/1957","Male","01/06/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2391452601","11/04/1957","Male","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2503452601","13/07/1957","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2119002601","02/08/1957","Male","23/05/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2321802601","14/02/1958","Male","01/05/2022","£0.00","Sodexo Ltd - Monthly Paid","2531802601","13/03/1958","Female","01/05/2022","£0.00","Sodexo Ltd - Monthly Paid","2665452601","14/03/1958","Female","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2116452601","24/03/1958","Male","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2814452601","04/04/1958","Male","01/06/2022","£0.00","Sodexo Ltd - Monthly Paid","2127872601","18/05/1958","Female","07/07/2022","£0.00","Sodexo Ltd - AE Weekly Paid","2947872601","15/08/1958","Male","07/07/2022","£0.00","Sodexo Ltd - AE Weekly Paid"]</t>
+  </si>
+  <si>
+    <t>GF71965001 - SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>£37.94M</t>
+  </si>
+  <si>
+    <t>£19.20M</t>
+  </si>
+  <si>
+    <t>["Members at 24/04/2022","115,803","117,614","233,417","At start of period - Non mover","115,803","117,614","233,417","At start of period - Mover","0","0","0","New accounts - Non mover","3,632","1","3,633","New accounts - Mover","0","0","0","Rejoiners","2","-2","0","Deferred","-5,279","5,279","0","Less leavers","-9","-2","-11","Less deceased","-2","0","-2","Less retired","-88","-933","-1,021","Less surrendered","-4","-76","-80","Less transferred","-53","-911","-964","Members at 24/07/2022","114,002","120,970","234,972"]</t>
+  </si>
+  <si>
+    <t>["2748652601","22/06/1948","Male","26/06/2022","£0.00","New Members","2507512601","21/11/1949","Male","27/05/2022","£0.00","New Members","2733362601","25/05/1950","Male","24/06/2022","£0.00","New Members","2203362601","04/06/1951","Male","24/06/2022","£0.00","New Members","2567512601","03/07/1951","Male","27/05/2022","£0.00","New Members","2992362601","25/10/1951","Female","24/06/2022","£0.00","New Members","2936512601","07/02/1952","Female","27/05/2022","£0.00","New Members","2033362601","02/07/1952","Female","24/06/2022","£0.00","New Members","2981362601","25/09/1952","Male","24/06/2022","£0.00","New Members","2971362601","16/01/1953","Male","24/06/2022","£0.00","New Members","2771362601","20/03/1953","Male","24/06/2022","£0.00","New Members","2456512601","28/12/1953","Female","27/05/2022","£0.00","New Members","2677162601","14/10/1954","Female","24/06/2022","£0.00","New Members","2286512601","23/02/1955","Female","27/05/2022","£0.00","New Members","2376512601","14/03/1955","Male","27/05/2022","£0.00","New Members","2307512601","07/04/1955","Female","27/05/2022","£0.00","New Members","2123362601","27/06/1955","Female","24/06/2022","£0.00","New Members","2896512601","09/04/1956","Female","27/05/2022","£0.00","New Members","2476512601","13/05/1956","Female","27/05/2022","£0.00","New Members"]</t>
+  </si>
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Actual Data</t>
-  </si>
-  <si>
-    <t>TOLERANCE</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Member Net Movement</t>
-  </si>
-  <si>
     <t>-8</t>
   </si>
   <si>
-    <t>Total Contribution</t>
-  </si>
-  <si>
     <t>£0.00M</t>
   </si>
   <si>
-    <t>Total payments out</t>
-  </si>
-  <si>
     <t>£0.44M</t>
   </si>
   <si>
-    <t>Members at start date</t>
-  </si>
-  <si>
-    <t>Members at end date</t>
-  </si>
-  <si>
     <t>YOUR M &amp; S PENSION SAVING PLAN</t>
   </si>
   <si>
@@ -151,27 +293,18 @@
     <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
   </si>
   <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+    <t>SAINSBURY'S SIPP</t>
   </si>
   <si>
     <t>Total Contribution in Million</t>
   </si>
   <si>
-    <t>£40.79M</t>
+    <t>£5.00M</t>
   </si>
   <si>
     <t>Total payments out in Million</t>
   </si>
   <si>
-    <t>£14.76M</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S SIPP</t>
-  </si>
-  <si>
-    <t>£5.00M</t>
-  </si>
-  <si>
     <t>£1.88M</t>
   </si>
   <si>
@@ -250,13 +383,16 @@
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>£11.63M</t>
-  </si>
-  <si>
-    <t>£1.00M</t>
+    <t>£36.72M</t>
+  </si>
+  <si>
+    <t>£17.61M</t>
+  </si>
+  <si>
+    <t>["Members at 10/04/2022","117,539","116,047","233,586","At start of period - Non mover","117,539","116,047","233,586","At start of period - Mover","0","0","0","New accounts - Non mover","1,600","0","1,600","New accounts - Mover","0","0","0","Rejoiners","0","0","0","Deferred","-4,870","4,870","0","Less leavers","-7","-4","-11","Less deceased","-2","0","-2","Less retired","-62","-879","-941","Less surrendered","-4","-73","-77","Less transferred","-58","-856","-914","Members at 10/07/2022","114,136","119,105","233,241"]</t>
+  </si>
+  <si>
+    <t>["2507512601","21/11/1949","Male","27/05/2022","£0.00","New Members","2567512601","03/07/1951","Male","27/05/2022","£0.00","New Members","2936512601","07/02/1952","Female","27/05/2022","£0.00","New Members","2456512601","28/12/1953","Female","27/05/2022","£0.00","New Members","2286512601","23/02/1955","Female","27/05/2022","£0.00","New Members","2376512601","14/03/1955","Male","27/05/2022","£0.00","New Members","2307512601","07/04/1955","Female","27/05/2022","£0.00","New Members","2896512601","09/04/1956","Female","27/05/2022","£0.00","New Members","2476512601","13/05/1956","Female","27/05/2022","£0.00","New Members","2217512601","14/05/1956","Female","27/05/2022","£0.00","New Members","2096512601","27/05/1956","Female","27/05/2022","£0.00","New Members","2946512601","29/05/1956","Female","27/05/2022","£0.00","New Members","2186512601","05/06/1956","Female","27/05/2022","£0.00","New Members","2386512601","19/06/1956","Female","27/05/2022","£0.00","New Members","2866512601","29/06/1956","Female","27/05/2022","£0.00","New Members","2196512601","31/07/1956","Female","27/05/2022","£0.00","New Members","2684512601","03/09/1956","Male","01/05/2022","£0.00","New Members","2466512601","24/09/1956","Male","27/05/2022","£0.00","New Members","2986512601","22/10/1956","Male","27/05/2022","£0.00","New Members"]</t>
   </si>
 </sst>
 </file>
@@ -266,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +419,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,12 +427,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC586C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +460,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -318,9 +488,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -349,6 +547,26 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -364,19 +582,6 @@
       </top>
       <bottom style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,60 +631,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="174">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1904,6 +2278,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="50">
+        <v>-345</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-2112</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="18" t="str">
+        <f t="shared" ref="G14:G16" si="0">IF(AND((D14+(D14*F14))&gt;=E14,(D14-(D14*F14))&lt;=E14),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50">
+        <v>233586</v>
+      </c>
+      <c r="E19" s="12">
+        <v>24304</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="18" t="str">
+        <f t="shared" ref="G19:G20" si="1">IF(AND((D19+(D19*F21))&gt;=E19,(D19-(D19*F21))&lt;=E19),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="51">
+        <v>233241</v>
+      </c>
+      <c r="E20" s="21">
+        <v>22192</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H20" s="24" t="str">
+        <f>IF(AND(E7&gt;=E6,E7&lt;E6),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="I20" s="1">
+        <f>E20-E19</f>
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="50">
+        <v>-345</v>
+      </c>
+      <c r="E21" s="12">
+        <v>-2112</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1607</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1063</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="173" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="171" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="170" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="168" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="cellIs" dxfId="166" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1913,143 +3143,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="163" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="161" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="158" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2058,8 +3280,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2074,289 +3296,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>-30</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28">
         <v>1433</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28">
         <v>1403</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="115" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="42.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2376,135 +3450,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="101" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2524,135 +3598,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,135 +3746,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="56.42578125" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2820,135 +3894,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="28.5703125" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2968,135 +4042,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="41.5703125" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3107,6 +4181,154 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3121,153 +4343,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28">
         <v>398</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="28">
         <v>416</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="34">
         <v>11.16</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="34">
         <v>11.16</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="34">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="34">
         <v>6.12</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="35">
         <v>63125</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="35">
         <v>63125</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="35">
         <v>63541</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="35">
         <v>63541</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3276,8 +4498,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3291,141 +4513,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>-19</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28">
         <v>1040</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28">
         <v>1021</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3434,8 +4656,878 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="50">
+        <v>-345</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1555</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="18" t="str">
+        <f t="shared" ref="G14:G22" si="0">IF(AND((D14+(D14*F14))&gt;=E14,(D14-(D14*F14))&lt;=E14),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="50">
+        <v>233586</v>
+      </c>
+      <c r="E19" s="12">
+        <v>233417</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="18" t="str">
+        <f t="shared" ref="G19:G20" si="1">IF(AND((D19+(D19*F21))&gt;=E19,(D19-(D19*F21))&lt;=E19),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="51">
+        <v>233241</v>
+      </c>
+      <c r="E20" s="21">
+        <v>234972</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+      <c r="H20" s="24" t="str">
+        <f>IF(AND(E20&gt;=E19,E20&lt;E19),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="I20" s="1">
+        <f>E20-E19</f>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="50">
+        <v>-345</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1555</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1607</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3635</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="163" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="161" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="160" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="158" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3449,442 +5541,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="157" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="155" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="153" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="152" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="3" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,136 +5684,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4043,6 +5830,154 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4054,283 +5989,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="29.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,135 +6137,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4498,135 +6285,135 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,115 +6433,124 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -4784,137 +6580,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4934,135 +6720,136 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="3" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5073,12 +6860,147 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5095,144 +7017,143 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="1" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" s="27" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="150" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="149" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5321,155 +7242,12 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-1413</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11">
-        <v>11.36</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>24372</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24954</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>23541</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5524,141 +7302,150 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="145" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="144" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="142" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="140" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
@@ -5686,136 +7473,144 @@
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+    <row r="1" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="139" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="137" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="135" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5826,6 +7621,303 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="134" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="133" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="str">
+        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="127" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5840,153 +7932,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28">
         <v>624</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="28">
         <v>624</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
+      <c r="D3" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="34">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="34">
         <v>11.73</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
+      <c r="D4" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="18" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="34">
         <v>14.29</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="34">
         <v>15.29</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
+      <c r="D5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="18" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="28">
         <v>66247</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="28">
         <v>66247</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="18" t="str">
         <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28">
         <v>66800</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="28">
         <v>66871</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="32">
         <v>0.02</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5995,8 +8087,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -6006,319 +8098,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="123" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1262</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11">
-        <v>35.6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11">
-        <v>14.13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>226010</v>
-      </c>
-      <c r="C6" s="2">
-        <v>230093</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>231201</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="120" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="116" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
 </file>